--- a/Documents/工作日记.xlsx
+++ b/Documents/工作日记.xlsx
@@ -431,7 +431,8 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
